--- a/biology/Zoologie/Ansonia_hanitschi/Ansonia_hanitschi.xlsx
+++ b/biology/Zoologie/Ansonia_hanitschi/Ansonia_hanitschi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ansonia hanitschi est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ansonia hanitschi est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord de l'île de Bornéo[1]. Elle se rencontre entre 750 et 1 600 m d'altitude :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord de l'île de Bornéo. Elle se rencontre entre 750 et 1 600 m d'altitude :
 au Kalimantan en Indonésie ;
 en Malaisie, dans le parc du Kinabalu et dans la chaine des Banjaran Crocker sur le mont Kinabalu et le mont Lumaku dans l'État du Sabah et dans le Parc national du Gunung Mulu dans l'État du Sarawak.
 Elle pourrait être présente au Brunei.
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent environ 26 mm et les femelles de 30 à 32 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent environ 26 mm et les femelles de 30 à 32 mm.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl Richard Hanitsch (1860–1940).
 </t>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Inger, 1960 : A review of the oriental toads of the genus Ansonia Stoliczka. Fieldiana, Zoology, vol. 39, no 43, p. 473-503 (texte intégral).</t>
         </is>
